--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/tabela_resumo.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/tabela_resumo.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0004114117357030267</v>
+        <v>0.006334902933385678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04838430359173707</v>
+        <v>0.1978567455633344</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5514124420918201</v>
+        <v>1.517499533251186</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2272368656570267</v>
+        <v>0.3001779734912538</v>
       </c>
       <c r="F2" t="n">
-        <v>1.357108688228969</v>
+        <v>0.8389825333025407</v>
       </c>
       <c r="G2" t="n">
-        <v>16.74</v>
+        <v>35.78</v>
       </c>
     </row>
   </sheetData>

--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/tabela_resumo.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/tabela_resumo.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006334902933385678</v>
+        <v>0.0004900049639253723</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1978567455633344</v>
+        <v>0.01061728878910735</v>
       </c>
       <c r="D2" t="n">
-        <v>1.517499533251186</v>
+        <v>0.05177053714756319</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3001779734912538</v>
+        <v>0.4292279437445356</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8389825333025407</v>
+        <v>2.27701673583778</v>
       </c>
       <c r="G2" t="n">
-        <v>35.78</v>
+        <v>18.85</v>
       </c>
     </row>
   </sheetData>

--- a/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/tabela_resumo.xlsx
+++ b/Iniciação Cientifica - Eng Eletrica UFF/evolution_rce_master/src/assets/output/resultado consolidado/tabela_resumo.xlsx
@@ -470,22 +470,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0004900049639253723</v>
+        <v>6.537576981102688e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01061728878910735</v>
+        <v>0.07090239856820775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05177053714756319</v>
+        <v>0.4080665883277739</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4292279437445356</v>
+        <v>16.14253289135289</v>
       </c>
       <c r="F2" t="n">
-        <v>2.27701673583778</v>
+        <v>19.62821485518731</v>
       </c>
       <c r="G2" t="n">
-        <v>18.85</v>
+        <v>82.23999999999999</v>
       </c>
     </row>
   </sheetData>
